--- a/Microprocessor.xlsx
+++ b/Microprocessor.xlsx
@@ -271,7 +271,7 @@
     <t xml:space="preserve">disp15</t>
   </si>
   <si>
-    <t xml:space="preserve">FO-disp15</t>
+    <t xml:space="preserve">CI-disp15</t>
   </si>
   <si>
     <t xml:space="preserve">IP-next</t>
@@ -332,7 +332,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,6 +391,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDAE3F3"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -687,7 +693,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="163">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1208,75 +1214,135 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1360,7 +1426,7 @@
   <dimension ref="1:27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y24" activeCellId="0" sqref="Y24"/>
+      <selection pane="topLeft" activeCell="AZ25" activeCellId="0" sqref="AZ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5088,7 +5154,7 @@
       <c r="AY24" s="134" t="n">
         <v>0</v>
       </c>
-      <c r="AZ24" s="104" t="n">
+      <c r="AZ24" s="140" t="n">
         <v>0</v>
       </c>
       <c r="BA24" s="137" t="n">
@@ -5108,491 +5174,491 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="108" t="s">
+      <c r="A25" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="141" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="140" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="140" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="140" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="142" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="141" t="s">
+      <c r="C25" s="143" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="144" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="J25" s="141"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="141"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="141"/>
-      <c r="T25" s="141"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="141"/>
-      <c r="W25" s="141"/>
-      <c r="X25" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP25" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ25" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR25" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS25" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT25" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU25" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW25" s="143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX25" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="141" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC25" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" s="142" t="n">
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="143"/>
+      <c r="R25" s="143"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="143"/>
+      <c r="W25" s="143"/>
+      <c r="X25" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="146" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="144" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="144" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="M26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="N26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="P26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="R26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="S26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="T26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="U26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="V26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="W26" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="X26" s="98" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM26" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP26" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT26" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU26" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV26" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="145" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX26" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD26" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE26" s="147" t="n">
+      <c r="C26" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="150" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="T26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="U26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="W26" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="X26" s="151" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX26" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="156" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="108"/>
-      <c r="B27" s="128" t="s">
+      <c r="A27" s="141"/>
+      <c r="B27" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="119" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="N27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="P27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="R27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="T27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="U27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="V27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="W27" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="X27" s="122" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="119" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL27" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN27" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="119" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="119" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT27" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV27" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="121" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC27" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD27" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE27" s="120" t="n">
+      <c r="C27" s="158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="160" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="158" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="R27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="U27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="V27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="W27" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="X27" s="145" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="159" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="160" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Microprocessor.xlsx
+++ b/Microprocessor.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="91">
   <si>
     <t xml:space="preserve">State</t>
   </si>
@@ -139,9 +139,18 @@
     <t xml:space="preserve">DI</t>
   </si>
   <si>
+    <t xml:space="preserve">op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">op2</t>
+  </si>
+  <si>
     <t xml:space="preserve">FO-rs2</t>
   </si>
   <si>
+    <t xml:space="preserve">uop</t>
+  </si>
+  <si>
     <t xml:space="preserve">rd</t>
   </si>
   <si>
@@ -154,6 +163,27 @@
     <t xml:space="preserve">rs2</t>
   </si>
   <si>
+    <t xml:space="preserve">ir2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ir1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ir0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FO-pimm4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simm4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FO-nimm4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EW-microcc</t>
+  </si>
+  <si>
     <t xml:space="preserve">ir7</t>
   </si>
   <si>
@@ -163,27 +193,6 @@
     <t xml:space="preserve">ir5</t>
   </si>
   <si>
-    <t xml:space="preserve">ir2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ir1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ir0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FO-pimm4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simm4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FO-nimm4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EW-microcc</t>
-  </si>
-  <si>
     <t xml:space="preserve">irA</t>
   </si>
   <si>
@@ -274,10 +283,16 @@
     <t xml:space="preserve">CI-disp15</t>
   </si>
   <si>
-    <t xml:space="preserve">IP-next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP-disp</t>
+    <t xml:space="preserve">PC-next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC-jmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC-disp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC-call</t>
   </si>
 </sst>
 </file>
@@ -293,7 +308,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -316,23 +330,20 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,14 +404,8 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -549,6 +554,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
       <top/>
@@ -567,6 +579,20 @@
       <right/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -595,13 +621,6 @@
       <right style="hair"/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -640,13 +659,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="thin"/>
@@ -661,10 +673,24 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left style="hair"/>
       <right style="hair"/>
-      <top style="thin"/>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -693,7 +719,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="161">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -930,27 +956,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -958,19 +988,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1070,7 +1100,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1086,7 +1116,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1106,7 +1144,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1114,15 +1152,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1130,39 +1168,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1190,7 +1232,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1214,135 +1256,111 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1423,10 +1441,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:27"/>
+  <dimension ref="1:29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AZ25" activeCellId="0" sqref="AZ25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1952,20 +1970,14 @@
         <v>37</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="45" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="45" t="s">
         <v>37</v>
       </c>
@@ -2107,7 +2119,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>37</v>
@@ -2127,25 +2139,19 @@
       <c r="H6" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="59" t="s">
-        <v>37</v>
-      </c>
+      <c r="I6" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="60" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N6" s="60"/>
       <c r="O6" s="60"/>
       <c r="P6" s="61" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="61"/>
       <c r="R6" s="61"/>
@@ -2153,10 +2159,10 @@
         <v>0</v>
       </c>
       <c r="T6" s="55" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U6" s="56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V6" s="56"/>
       <c r="W6" s="56"/>
@@ -2203,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="AL6" s="54" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AM6" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN6" s="59" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="AN6" s="64" t="s">
+        <v>49</v>
       </c>
       <c r="AO6" s="58" t="n">
         <v>0</v>
@@ -2220,7 +2226,7 @@
       <c r="AQ6" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="AR6" s="59" t="s">
+      <c r="AR6" s="64" t="s">
         <v>49</v>
       </c>
       <c r="AS6" s="58" t="n">
@@ -2232,7 +2238,7 @@
       <c r="AU6" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="AV6" s="59" t="n">
+      <c r="AV6" s="64" t="n">
         <v>1</v>
       </c>
       <c r="AW6" s="60" t="n">
@@ -2244,7 +2250,7 @@
       <c r="AY6" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="AZ6" s="64" t="n">
+      <c r="AZ6" s="65" t="n">
         <v>0</v>
       </c>
       <c r="BA6" s="58" t="n">
@@ -2256,7 +2262,7 @@
       <c r="BC6" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="BD6" s="59" t="n">
+      <c r="BD6" s="64" t="n">
         <v>0</v>
       </c>
       <c r="BE6" s="57" t="n">
@@ -2265,7 +2271,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="36"/>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="66" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="46" t="s">
@@ -2286,29 +2292,21 @@
       <c r="H7" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="68" t="n">
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="69" t="n">
         <v>1</v>
       </c>
       <c r="T7" s="46" t="n">
@@ -2319,7 +2317,7 @@
       </c>
       <c r="V7" s="45"/>
       <c r="W7" s="45"/>
-      <c r="X7" s="69" t="n">
+      <c r="X7" s="70" t="n">
         <v>0</v>
       </c>
       <c r="Y7" s="45" t="n">
@@ -2394,16 +2392,16 @@
       <c r="AV7" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="AW7" s="67" t="n">
+      <c r="AW7" s="68" t="n">
         <v>1</v>
       </c>
       <c r="AX7" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="AY7" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="66" t="n">
+      <c r="AY7" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="67" t="n">
         <v>0</v>
       </c>
       <c r="BA7" s="46" t="n">
@@ -2427,174 +2425,166 @@
       <c r="B8" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="71" t="s">
+      <c r="C8" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="72" t="n">
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="77" t="n">
+      <c r="A9" s="78" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="80" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="81" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="45" t="s">
@@ -2615,31 +2605,31 @@
       <c r="K9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="81" t="s">
+      <c r="L9" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="69" t="n">
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="70" t="n">
         <v>0</v>
       </c>
       <c r="Y9" s="45" t="n">
@@ -2648,7 +2638,7 @@
       <c r="Z9" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="80" t="n">
+      <c r="AA9" s="81" t="n">
         <v>0</v>
       </c>
       <c r="AB9" s="45" t="n">
@@ -2660,430 +2650,430 @@
       <c r="AD9" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="80" t="n">
+      <c r="AE9" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="81" t="n">
         <v>1</v>
       </c>
       <c r="AH9" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="AI9" s="80" t="n">
+      <c r="AI9" s="81" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM9" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN9" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO9" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ9" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="65" t="s">
+      <c r="AK9" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="AU9" s="65" t="s">
+      <c r="AM9" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="AV9" s="85" t="s">
+      <c r="AN9" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="AW9" s="82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="87" t="s">
+      <c r="AO9" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="BB9" s="88" t="s">
+      <c r="AU9" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="BC9" s="88" t="s">
+      <c r="AV9" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="BD9" s="89" t="s">
+      <c r="AW9" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="88" t="s">
         <v>60</v>
+      </c>
+      <c r="BB9" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC9" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD9" s="90" t="s">
+        <v>63</v>
       </c>
       <c r="BE9" s="47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="77"/>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="X10" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM10" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN10" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO10" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU10" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV10" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW10" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB10" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="U10" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="W10" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="X10" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM10" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN10" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO10" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU10" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV10" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW10" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB10" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC10" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD10" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE10" s="75" t="n">
+      <c r="BC10" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD10" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE10" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="77" t="n">
+      <c r="A11" s="78" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="U11" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM11" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN11" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO11" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="84" t="s">
+      <c r="B11" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM11" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN11" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO11" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="AQ11" s="84" t="s">
+      <c r="AQ11" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="AR11" s="86" t="s">
+      <c r="AR11" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="AS11" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC11" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="81" t="n">
+      <c r="AS11" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="77"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="73" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="40" t="n">
@@ -3101,141 +3091,141 @@
       <c r="L12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="U12" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM12" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN12" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO12" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="71" t="s">
+      <c r="M12" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM12" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN12" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO12" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="AQ12" s="71" t="s">
+      <c r="AQ12" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="AR12" s="72" t="s">
+      <c r="AR12" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="AS12" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="72" t="n">
+      <c r="AS12" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="77" t="n">
+      <c r="A13" s="78" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="82" t="s">
-        <v>66</v>
+      <c r="B13" s="83" t="s">
+        <v>69</v>
       </c>
       <c r="C13" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="81" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="45" t="s">
@@ -3244,13 +3234,13 @@
       <c r="F13" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="94" t="s">
+      <c r="G13" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="95" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="45" t="s">
@@ -3259,15 +3249,15 @@
       <c r="K13" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="94" t="s">
+      <c r="L13" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="95" t="s">
         <v>37</v>
       </c>
       <c r="Q13" s="45" t="s">
@@ -3282,19 +3272,19 @@
       <c r="T13" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="V13" s="80" t="s">
+      <c r="U13" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="81" t="s">
         <v>37</v>
       </c>
       <c r="W13" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="X13" s="94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="80" t="n">
+      <c r="X13" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="81" t="n">
         <v>0</v>
       </c>
       <c r="Z13" s="45" t="n">
@@ -3315,7 +3305,7 @@
       <c r="AE13" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="AF13" s="80" t="n">
+      <c r="AF13" s="81" t="n">
         <v>0</v>
       </c>
       <c r="AG13" s="45" t="n">
@@ -3327,10 +3317,10 @@
       <c r="AI13" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="79" t="n">
+      <c r="AJ13" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="80" t="n">
         <v>1</v>
       </c>
       <c r="AL13" s="45" t="n">
@@ -3339,43 +3329,43 @@
       <c r="AM13" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="AN13" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="79" t="n">
+      <c r="AN13" s="82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="80" t="n">
         <v>0</v>
       </c>
       <c r="AP13" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ13" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR13" s="81" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AQ13" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR13" s="82" t="s">
+        <v>59</v>
       </c>
       <c r="AS13" s="46" t="n">
         <v>0</v>
       </c>
       <c r="AT13" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU13" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV13" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW13" s="67" t="n">
+        <v>57</v>
+      </c>
+      <c r="AU13" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV13" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW13" s="68" t="n">
         <v>1</v>
       </c>
       <c r="AX13" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="AY13" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="66" t="n">
+      <c r="AY13" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="67" t="n">
         <v>0</v>
       </c>
       <c r="BA13" s="46" t="n">
@@ -3390,114 +3380,114 @@
       <c r="BD13" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="BE13" s="68" t="n">
+      <c r="BE13" s="69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="77"/>
-      <c r="B14" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="T14" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="U14" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="V14" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="W14" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="X14" s="99" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="100" t="n">
+      <c r="A14" s="78"/>
+      <c r="B14" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="103" t="n">
         <v>1</v>
       </c>
       <c r="AL14" s="37" t="n">
@@ -3509,40 +3499,40 @@
       <c r="AN14" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="AO14" s="100" t="n">
+      <c r="AO14" s="103" t="n">
         <v>0</v>
       </c>
       <c r="AP14" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ14" s="101" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR14" s="102" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AQ14" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR14" s="105" t="s">
+        <v>59</v>
       </c>
       <c r="AS14" s="40" t="n">
         <v>0</v>
       </c>
       <c r="AT14" s="37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AU14" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV14" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW14" s="73" t="n">
+        <v>58</v>
+      </c>
+      <c r="AV14" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW14" s="74" t="n">
         <v>0</v>
       </c>
       <c r="AX14" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="AY14" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="73" t="n">
+      <c r="AY14" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="74" t="n">
         <v>0</v>
       </c>
       <c r="BA14" s="40" t="n">
@@ -3557,57 +3547,57 @@
       <c r="BD14" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="BE14" s="75" t="n">
+      <c r="BE14" s="76" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="77" t="n">
+      <c r="A15" s="78" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="69" t="n">
+      <c r="B15" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="70" t="n">
         <v>0</v>
       </c>
       <c r="Q15" s="45" t="s">
@@ -3623,266 +3613,266 @@
         <v>37</v>
       </c>
       <c r="U15" s="45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V15" s="45"/>
       <c r="W15" s="45"/>
-      <c r="X15" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW15" s="82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC15" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="81" t="n">
+      <c r="X15" s="70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="77"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO16" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS16" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD16" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE16" s="72" t="n">
+      <c r="C16" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="112"/>
+      <c r="W16" s="112"/>
+      <c r="X16" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="110" t="n">
+      <c r="A17" s="113" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="85" t="s">
-        <v>74</v>
+      <c r="B17" s="86" t="s">
+        <v>77</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>37</v>
@@ -3899,31 +3889,31 @@
       <c r="G17" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="69" t="n">
+      <c r="H17" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="70" t="n">
         <v>0</v>
       </c>
       <c r="Q17" s="45" t="s">
@@ -3944,10 +3934,10 @@
       <c r="V17" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="W17" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="X17" s="69" t="n">
+      <c r="W17" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="70" t="n">
         <v>0</v>
       </c>
       <c r="Y17" s="45" t="n">
@@ -3987,13 +3977,13 @@
         <v>0</v>
       </c>
       <c r="AK17" s="46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="47" t="n">
         <v>0</v>
@@ -4022,23 +4012,23 @@
       <c r="AV17" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AW17" s="67" t="n">
+      <c r="AW17" s="68" t="n">
         <v>1</v>
       </c>
       <c r="AX17" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="AY17" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ17" s="65" t="s">
+      <c r="AY17" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ17" s="66" t="s">
         <v>37</v>
       </c>
       <c r="BA17" s="46" t="n">
         <v>0</v>
       </c>
       <c r="BB17" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="45" t="n">
         <v>0</v>
@@ -4051,176 +4041,176 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="110"/>
-      <c r="B18" s="102" t="s">
+      <c r="A18" s="113"/>
+      <c r="B18" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="S18" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="T18" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="V18" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="W18" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP18" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS18" s="114" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ18" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA18" s="114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="97" t="n">
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ18" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA18" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="110"/>
-      <c r="B19" s="85" t="s">
-        <v>75</v>
+      <c r="A19" s="113"/>
+      <c r="B19" s="86" t="s">
+        <v>78</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>37</v>
@@ -4237,27 +4227,27 @@
       <c r="G19" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="69" t="n">
+      <c r="H19" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="70" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="45" t="s">
@@ -4278,10 +4268,10 @@
       <c r="V19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="W19" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="69" t="n">
+      <c r="W19" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="70" t="n">
         <v>0</v>
       </c>
       <c r="Y19" s="45" t="n">
@@ -4356,16 +4346,16 @@
       <c r="AV19" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AW19" s="67" t="n">
+      <c r="AW19" s="68" t="n">
         <v>1</v>
       </c>
       <c r="AX19" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="AY19" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ19" s="116" t="s">
+      <c r="AY19" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ19" s="120" t="s">
         <v>37</v>
       </c>
       <c r="BA19" s="46" t="n">
@@ -4385,11 +4375,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="77" t="n">
+      <c r="A20" s="78" t="n">
         <v>8</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>37</v>
@@ -4422,12 +4412,12 @@
         <v>0</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N20" s="61"/>
       <c r="O20" s="61"/>
       <c r="P20" s="55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="55"/>
       <c r="R20" s="55"/>
@@ -4436,7 +4426,7 @@
       <c r="U20" s="55"/>
       <c r="V20" s="55"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="117" t="n">
+      <c r="X20" s="121" t="n">
         <v>0</v>
       </c>
       <c r="Y20" s="56" t="n">
@@ -4520,7 +4510,7 @@
       <c r="AY20" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="AZ20" s="64" t="n">
+      <c r="AZ20" s="65" t="n">
         <v>0</v>
       </c>
       <c r="BA20" s="55" t="n">
@@ -4540,134 +4530,134 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="77"/>
-      <c r="B21" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="120" t="s">
+      <c r="A21" s="78"/>
+      <c r="B21" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="124" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="119" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="119" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="120" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS21" s="119" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="120" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" s="121" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX21" s="118" t="n">
+      <c r="I21" s="123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="123"/>
+      <c r="X21" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="122" t="n">
         <v>0</v>
       </c>
       <c r="AY21" s="52" t="n">
@@ -4676,28 +4666,28 @@
       <c r="AZ21" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="BA21" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" s="120" t="n">
+      <c r="BA21" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="124" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="77" t="n">
+      <c r="A22" s="78" t="n">
         <v>9</v>
       </c>
-      <c r="B22" s="123" t="s">
-        <v>79</v>
+      <c r="B22" s="127" t="s">
+        <v>82</v>
       </c>
       <c r="C22" s="55" t="s">
         <v>37</v>
@@ -4705,39 +4695,39 @@
       <c r="D22" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="97" t="s">
+      <c r="E22" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="98" t="s">
         <v>37</v>
       </c>
       <c r="H22" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="96" t="n">
+      <c r="I22" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="97" t="n">
         <v>1</v>
       </c>
       <c r="L22" s="57" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N22" s="61"/>
       <c r="O22" s="61"/>
-      <c r="P22" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" s="96" t="s">
+      <c r="P22" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="97" t="s">
         <v>37</v>
       </c>
       <c r="R22" s="56" t="s">
@@ -4749,7 +4739,7 @@
       <c r="T22" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="U22" s="96" t="s">
+      <c r="U22" s="97" t="s">
         <v>37</v>
       </c>
       <c r="V22" s="56" t="s">
@@ -4758,7 +4748,7 @@
       <c r="W22" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="X22" s="124" t="n">
+      <c r="X22" s="128" t="n">
         <v>0</v>
       </c>
       <c r="Y22" s="56" t="n">
@@ -4776,16 +4766,16 @@
       <c r="AC22" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="AD22" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="96" t="n">
+      <c r="AD22" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="97" t="n">
         <v>0</v>
       </c>
       <c r="AH22" s="56" t="n">
@@ -4825,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="AT22" s="56" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AU22" s="56" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AV22" s="57" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AW22" s="61" t="n">
         <v>1</v>
@@ -4845,13 +4835,13 @@
       <c r="AZ22" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="BA22" s="114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="96" t="n">
+      <c r="BA22" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="97" t="n">
         <v>0</v>
       </c>
       <c r="BD22" s="57" t="n">
@@ -4862,11 +4852,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="77"/>
-      <c r="B23" s="125" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="119" t="s">
+      <c r="A23" s="78"/>
+      <c r="B23" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="123" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -4878,13 +4868,13 @@
       <c r="F23" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="120" t="s">
+      <c r="G23" s="124" t="s">
         <v>37</v>
       </c>
       <c r="H23" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="119" t="n">
+      <c r="I23" s="123" t="n">
         <v>1</v>
       </c>
       <c r="J23" s="50" t="n">
@@ -4896,12 +4886,12 @@
       <c r="L23" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="M23" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="119" t="s">
+      <c r="M23" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="123" t="s">
         <v>37</v>
       </c>
       <c r="Q23" s="50" t="s">
@@ -4925,7 +4915,7 @@
       <c r="W23" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="X23" s="126" t="n">
+      <c r="X23" s="130" t="n">
         <v>0</v>
       </c>
       <c r="Y23" s="50" t="n">
@@ -4961,10 +4951,10 @@
       <c r="AI23" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="127" t="n">
+      <c r="AJ23" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="131" t="n">
         <v>1</v>
       </c>
       <c r="AL23" s="50" t="n">
@@ -4973,10 +4963,10 @@
       <c r="AM23" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="AN23" s="120" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO23" s="119" t="n">
+      <c r="AN23" s="124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="123" t="n">
         <v>1</v>
       </c>
       <c r="AP23" s="50" t="n">
@@ -4985,20 +4975,20 @@
       <c r="AQ23" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="AR23" s="120" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS23" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="128" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU23" s="128" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV23" s="129" t="s">
-        <v>56</v>
+      <c r="AR23" s="124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU23" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV23" s="133" t="s">
+        <v>59</v>
       </c>
       <c r="AW23" s="52" t="n">
         <v>1</v>
@@ -5012,7 +5002,7 @@
       <c r="AZ23" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="BA23" s="119" t="n">
+      <c r="BA23" s="123" t="n">
         <v>1</v>
       </c>
       <c r="BB23" s="50" t="n">
@@ -5021,649 +5011,987 @@
       <c r="BC23" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="BD23" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE23" s="120" t="n">
+      <c r="BD23" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="124" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="131" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="135" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="135"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="135"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="131" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="137" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="138" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM24" s="138" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="137" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="138" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="138" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR24" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="138" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU24" s="138" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV24" s="139" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW24" s="134" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX24" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD24" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE24" s="139" t="n">
+      <c r="B24" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="135" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="138"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="138"/>
+      <c r="V24" s="138"/>
+      <c r="W24" s="138"/>
+      <c r="X24" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="142" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="141" t="s">
+      <c r="A25" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="142" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="142" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="142" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="142" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="144" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="143" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="143"/>
-      <c r="P25" s="143"/>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="143"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="143"/>
-      <c r="W25" s="143"/>
-      <c r="X25" s="145" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP25" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ25" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR25" s="144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS25" s="143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT25" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW25" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="146" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC25" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="144" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" s="144" t="n">
+      <c r="B25" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="144" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="143" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="143" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="143" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="145" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="144" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="144"/>
+      <c r="O25" s="144"/>
+      <c r="P25" s="144"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="144"/>
+      <c r="T25" s="144"/>
+      <c r="U25" s="144"/>
+      <c r="V25" s="144"/>
+      <c r="W25" s="144"/>
+      <c r="X25" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="143" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="143" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="145" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="111" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="147" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="150" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="M26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="N26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="P26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="R26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="S26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="T26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="U26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="V26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="W26" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="X26" s="151" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="148" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="149" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM26" s="149" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="148" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP26" s="149" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="148" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT26" s="149" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU26" s="149" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV26" s="152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="153" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX26" s="154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" s="154" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="149" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD26" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE26" s="156" t="n">
+      <c r="D26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="T26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="U26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="W26" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="X26" s="116" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX26" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="117" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="141"/>
-      <c r="B27" s="157" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="158" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="160" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="158" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="N27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="P27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="R27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="T27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="U27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="V27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="W27" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="X27" s="145" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="158" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL27" s="159" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="159" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN27" s="160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="158" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="158" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT27" s="159" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="159" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV27" s="160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="161" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" s="162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" s="158" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="159" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC27" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD27" s="160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE27" s="160" t="n">
+      <c r="A27" s="111"/>
+      <c r="B27" s="151" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="R27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="U27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="V27" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="W27" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="X27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC27" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="111"/>
+      <c r="B28" s="147" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="R28" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="T28" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="U28" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="V28" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="W28" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="X28" s="116" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX28" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="111"/>
+      <c r="B29" s="155" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="158" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="156" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC29" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="158" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="58">
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="H1:W2"/>
@@ -5674,7 +6002,9 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AV2"/>
     <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="A6:A8"/>
+    <mergeCell ref="I6:L8"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="U6:W6"/>
@@ -5718,7 +6048,8 @@
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="I24:W24"/>
     <mergeCell ref="I25:W25"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="M28:O28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Microprocessor.xlsx
+++ b/Microprocessor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="92">
   <si>
     <t xml:space="preserve">State</t>
   </si>
@@ -253,10 +253,13 @@
     <t xml:space="preserve">disp8</t>
   </si>
   <si>
-    <t xml:space="preserve">EW-jump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EW-branch</t>
+    <t xml:space="preserve">sign ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EW-jb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mov</t>
   </si>
   <si>
     <t xml:space="preserve">FO-stlimm8</t>
@@ -308,6 +311,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -330,17 +334,20 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1180,28 +1187,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1236,6 +1227,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1316,11 +1311,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1441,10 +1448,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:29"/>
+  <dimension ref="1:27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22:I22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AY17" activeCellId="0" sqref="AY17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3816,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="AO16" s="71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="72" t="n">
         <v>0</v>
@@ -3825,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="71" t="n">
         <v>1</v>
@@ -3852,19 +3859,22 @@
         <v>0</v>
       </c>
       <c r="BA16" s="71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="73" t="n">
         <v>0</v>
       </c>
       <c r="BE16" s="73" t="n">
         <v>0</v>
+      </c>
+      <c r="BF16" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="86" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>37</v>
@@ -3913,8 +3923,8 @@
       <c r="O17" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="P17" s="70" t="n">
-        <v>0</v>
+      <c r="P17" s="70" t="s">
+        <v>37</v>
       </c>
       <c r="Q17" s="45" t="s">
         <v>37</v>
@@ -3977,16 +3987,16 @@
         <v>0</v>
       </c>
       <c r="AK17" s="46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17" s="45" t="n">
         <v>0</v>
       </c>
       <c r="AN17" s="47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" s="46" t="n">
         <v>1</v>
@@ -4018,11 +4028,11 @@
       <c r="AX17" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="AY17" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ17" s="66" t="s">
-        <v>37</v>
+      <c r="AY17" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ17" s="115" t="n">
+        <v>1</v>
       </c>
       <c r="BA17" s="46" t="n">
         <v>0</v>
@@ -4034,352 +4044,329 @@
         <v>0</v>
       </c>
       <c r="BD17" s="47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="47" t="n">
         <v>0</v>
+      </c>
+      <c r="BF17" s="116" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="113"/>
-      <c r="B18" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="S18" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="T18" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="U18" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="V18" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="W18" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP18" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS18" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="119" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ18" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA18" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="98" t="n">
+      <c r="A18" s="78" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="113"/>
-      <c r="B19" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="T19" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="U19" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="V19" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="W19" s="114" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP19" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS19" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ19" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA19" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD19" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE19" s="47" t="n">
+      <c r="A19" s="78"/>
+      <c r="B19" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="78" t="n">
-        <v>8</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="B20" s="123" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>37</v>
@@ -4387,25 +4374,25 @@
       <c r="D20" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="56" t="n">
+      <c r="E20" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="97" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="57" t="n">
@@ -4416,17 +4403,31 @@
       </c>
       <c r="N20" s="61"/>
       <c r="O20" s="61"/>
-      <c r="P20" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="121" t="n">
+      <c r="P20" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="X20" s="124" t="n">
         <v>0</v>
       </c>
       <c r="Y20" s="56" t="n">
@@ -4436,24 +4437,24 @@
         <v>0</v>
       </c>
       <c r="AA20" s="56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="AD20" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="56" t="n">
+      <c r="AD20" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="97" t="n">
         <v>0</v>
       </c>
       <c r="AH20" s="56" t="n">
@@ -4472,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="AM20" s="56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="57" t="n">
         <v>1</v>
@@ -4481,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="AP20" s="56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="56" t="n">
         <v>0</v>
@@ -4490,36 +4491,36 @@
         <v>1</v>
       </c>
       <c r="AS20" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="57" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT20" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU20" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV20" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="AW20" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="AX20" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="56" t="n">
+      <c r="AX20" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="97" t="n">
         <v>0</v>
       </c>
       <c r="BD20" s="57" t="n">
@@ -4531,133 +4532,147 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="78"/>
-      <c r="B21" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="123" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="122" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="122" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="122" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="124" t="s">
+      <c r="B21" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="120" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="122" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="125" t="s">
+      <c r="I21" s="119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="123" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="122" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="123" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="122" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="123" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="122" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS21" s="123" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="122" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX21" s="122" t="n">
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="X21" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU21" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV21" s="130" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW21" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="118" t="n">
         <v>0</v>
       </c>
       <c r="AY21" s="52" t="n">
@@ -4666,657 +4681,663 @@
       <c r="AZ21" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="BA21" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" s="124" t="n">
+      <c r="BA21" s="119" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB21" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC21" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="78" t="n">
-        <v>9</v>
-      </c>
-      <c r="B22" s="127" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="R22" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="S22" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="T22" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="U22" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="V22" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="W22" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="X22" s="128" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO22" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ22" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS22" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU22" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV22" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW22" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX22" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE22" s="61" t="n">
+      <c r="A22" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="132" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="135" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="135"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="139" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="78"/>
-      <c r="B23" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="123" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="124" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="123" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q23" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="R23" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="S23" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="T23" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="U23" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="V23" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="W23" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="X23" s="130" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="131" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM23" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO23" s="123" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP23" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="124" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS23" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU23" s="132" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV23" s="133" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW23" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="52" t="n">
-        <v>0</v>
+      <c r="A23" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="140" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="140" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="140" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="141" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
+      <c r="W23" s="141"/>
+      <c r="X23" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="140" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="143" t="n">
+        <v>1</v>
       </c>
       <c r="AZ23" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" s="123" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB23" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC23" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD23" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE23" s="124" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="140" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC23" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="142" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="134" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="138" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="138"/>
-      <c r="Q24" s="138"/>
-      <c r="R24" s="138"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="138"/>
-      <c r="W24" s="138"/>
-      <c r="X24" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="101" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="101" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM24" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="140" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR24" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU24" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV24" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW24" s="137" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX24" s="141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="140" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="141" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="141" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD24" s="142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE24" s="142" t="n">
+      <c r="A24" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="144" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="T24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="U24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="X24" s="147" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="111" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="143" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="144" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="145" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="144" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="144"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="144"/>
-      <c r="O25" s="144"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="144"/>
-      <c r="S25" s="144"/>
-      <c r="T25" s="144"/>
-      <c r="U25" s="144"/>
-      <c r="V25" s="144"/>
-      <c r="W25" s="144"/>
-      <c r="X25" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="143" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="145" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP25" s="143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ25" s="143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR25" s="145" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS25" s="144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="146" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="146" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ25" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="144" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="143" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC25" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="145" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" s="145" t="n">
+      <c r="A25" s="111"/>
+      <c r="B25" s="151" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="U25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="X25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="114" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="111" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="147" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="148" t="n">
-        <v>0</v>
+      <c r="A26" s="111"/>
+      <c r="B26" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="147" t="n">
+        <v>1</v>
       </c>
       <c r="D26" s="97" t="s">
         <v>37</v>
@@ -5327,13 +5348,13 @@
       <c r="F26" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="117" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="116" t="s">
+      <c r="G26" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="147" t="s">
         <v>37</v>
       </c>
       <c r="J26" s="97" t="s">
@@ -5346,14 +5367,10 @@
         <v>37</v>
       </c>
       <c r="M26" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="N26" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" s="97" t="s">
-        <v>37</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
       <c r="P26" s="97" t="s">
         <v>37</v>
       </c>
@@ -5375,10 +5392,10 @@
       <c r="V26" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="W26" s="117" t="s">
-        <v>37</v>
-      </c>
-      <c r="X26" s="116" t="n">
+      <c r="W26" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="X26" s="147" t="n">
         <v>1</v>
       </c>
       <c r="Y26" s="97" t="n">
@@ -5414,10 +5431,10 @@
       <c r="AI26" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="AJ26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="149" t="n">
+      <c r="AJ26" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="147" t="n">
         <v>1</v>
       </c>
       <c r="AL26" s="97" t="n">
@@ -5426,22 +5443,22 @@
       <c r="AM26" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="AN26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="149" t="n">
+      <c r="AN26" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="147" t="n">
         <v>1</v>
       </c>
       <c r="AP26" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="AR26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="149" t="n">
+      <c r="AR26" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="147" t="n">
         <v>1</v>
       </c>
       <c r="AT26" s="97" t="n">
@@ -5450,22 +5467,22 @@
       <c r="AU26" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="AV26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX26" s="150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" s="63" t="n">
+      <c r="AV26" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX26" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="147" t="n">
         <v>0</v>
       </c>
       <c r="BB26" s="97" t="n">
@@ -5474,524 +5491,186 @@
       <c r="BC26" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="BD26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE26" s="117" t="n">
+      <c r="BD26" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="111"/>
-      <c r="B27" s="151" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="R27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="T27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="U27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="V27" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="W27" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="X27" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT27" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV27" s="114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="152" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX27" s="152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ27" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" s="153" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD27" s="114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE27" s="114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="111"/>
-      <c r="B28" s="147" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="116" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="117" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="116" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="M28" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="R28" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="S28" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="T28" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="U28" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="V28" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="W28" s="117" t="s">
-        <v>37</v>
-      </c>
-      <c r="X28" s="116" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="116" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL28" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM28" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="116" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="116" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT28" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU28" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="154" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX28" s="154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ28" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA28" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB28" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC28" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE28" s="117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="111"/>
-      <c r="B29" s="155" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="156" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="158" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="158" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" s="156" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="156" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR29" s="158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS29" s="156" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT29" s="157" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU29" s="157" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV29" s="158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW29" s="159" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX29" s="159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY29" s="160" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ29" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA29" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB29" s="157" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC29" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD29" s="158" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE29" s="158" t="n">
+      <c r="B27" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="158" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="156" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC27" s="157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="158" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="55">
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="H1:W2"/>
@@ -6035,21 +5714,18 @@
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="P16:W16"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:W18"/>
     <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:W19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:W20"/>
     <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:W21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="I24:W24"/>
-    <mergeCell ref="I25:W25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="I22:W22"/>
+    <mergeCell ref="I23:W23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="M26:O26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
